--- a/kittyserver/gametools/parseExcelTool/Excel/SushiSpend.xlsx
+++ b/kittyserver/gametools/parseExcelTool/Excel/SushiSpend.xlsx
@@ -492,7 +492,7 @@
       <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -616,7 +616,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="1">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D10" s="1"/>
     </row>
@@ -628,7 +628,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D11" s="1"/>
     </row>
@@ -640,7 +640,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="1">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -651,7 +651,7 @@
         <v>2</v>
       </c>
       <c r="C13" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -662,7 +662,7 @@
         <v>2</v>
       </c>
       <c r="C14" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D14" s="1"/>
     </row>
@@ -674,7 +674,7 @@
         <v>2</v>
       </c>
       <c r="C15" s="1">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="D15" s="1"/>
     </row>
@@ -686,7 +686,7 @@
         <v>2</v>
       </c>
       <c r="C16" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="D16" s="1"/>
     </row>
